--- a/biology/Médecine/Crête_lacrymale_antérieure/Crête_lacrymale_antérieure.xlsx
+++ b/biology/Médecine/Crête_lacrymale_antérieure/Crête_lacrymale_antérieure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cr%C3%AAte_lacrymale_ant%C3%A9rieure</t>
+          <t>Crête_lacrymale_antérieure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La crête lacrymale antérieure est une crête osseuse du processus frontal du maxillaire. Il forme le bord latéral du sillon lacrymal du maxillaire et est en continuité avec le bord orbitaire.
 C'est un point d'insertion du ligament palpébral médial.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cr%C3%AAte_lacrymale_ant%C3%A9rieure</t>
+          <t>Crête_lacrymale_antérieure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,12 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La crête lacrymale antérieure s'étend jusqu'à la jonction entre l'os maxillaire et l'os lacrymal.
 La crête lacrymale antérieure est beaucoup plus épaisse et résistante que la crête lacrymale postérieure. C'est l'une des parties les plus épaisses de l'orbite.
-Rapports
-Le sac lacrymal est directement derrière la crête lacrymale.
 </t>
         </is>
       </c>
@@ -528,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cr%C3%AAte_lacrymale_ant%C3%A9rieure</t>
+          <t>Crête_lacrymale_antérieure</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,13 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Fonction</t>
+          <t>Structure</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La crête lacrymale antérieure est le site d'insertion du ligament palpébral médial.
-La crête lacrymale antérieure protège également le sac lacrymal.
+          <t>Rapports</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sac lacrymal est directement derrière la crête lacrymale.
 </t>
         </is>
       </c>
@@ -560,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cr%C3%AAte_lacrymale_ant%C3%A9rieure</t>
+          <t>Crête_lacrymale_antérieure</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,15 +592,89 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Fonction</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La crête lacrymale antérieure est le site d'insertion du ligament palpébral médial.
+La crête lacrymale antérieure protège également le sac lacrymal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Crête_lacrymale_antérieure</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cr%C3%AAte_lacrymale_ant%C3%A9rieure</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fracture par avulsion
-La crête lacrymale antérieure peut être vulnérable à une fracture par avulsion en raison de sa connexion au ligament palpébral médial.
-Rhinoplastie
-La crête lacrymale antérieure est une structure importante à préserver lors d'une rhinoplastie.
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fracture par avulsion</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La crête lacrymale antérieure peut être vulnérable à une fracture par avulsion en raison de sa connexion au ligament palpébral médial.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Crête_lacrymale_antérieure</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cr%C3%AAte_lacrymale_ant%C3%A9rieure</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Aspect clinique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Rhinoplastie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La crête lacrymale antérieure est une structure importante à préserver lors d'une rhinoplastie.
 </t>
         </is>
       </c>
